--- a/Collections/РФ/Монеты регулярного чекана 1993-н.в..xlsx
+++ b/Collections/РФ/Монеты регулярного чекана 1993-н.в..xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="1kopek " sheetId="1" r:id="rId1"/>
-    <sheet name="5kopeks" sheetId="2" r:id="rId2"/>
-    <sheet name="10kopeks " sheetId="3" r:id="rId3"/>
-    <sheet name="50kopeks " sheetId="4" r:id="rId4"/>
+    <sheet name="1копейка " sheetId="1" r:id="rId1"/>
+    <sheet name="5копеек" sheetId="2" r:id="rId2"/>
+    <sheet name="10копеек" sheetId="3" r:id="rId3"/>
+    <sheet name="50копеек" sheetId="4" r:id="rId4"/>
     <sheet name="1₽ " sheetId="5" r:id="rId5"/>
     <sheet name="2₽ " sheetId="6" r:id="rId6"/>
     <sheet name="5₽ " sheetId="7" r:id="rId7"/>
@@ -845,22 +845,10 @@
     <t>Copper-Nickel Plated Steel</t>
   </si>
   <si>
-    <t>5kopeks</t>
-  </si>
-  <si>
-    <t>1kopek</t>
-  </si>
-  <si>
     <t>Brass</t>
   </si>
   <si>
-    <t>10kopeks</t>
-  </si>
-  <si>
     <t>Tombac Plated Steel</t>
-  </si>
-  <si>
-    <t>50kopeks</t>
   </si>
   <si>
     <t>Brass Clad Steel</t>
@@ -978,6 +966,18 @@
   </si>
   <si>
     <t>Middle convenience single table description of varieties 1992-1993</t>
+  </si>
+  <si>
+    <t>1копейка</t>
+  </si>
+  <si>
+    <t>5копеек</t>
+  </si>
+  <si>
+    <t>10копеек</t>
+  </si>
+  <si>
+    <t>50копеек</t>
   </si>
 </sst>
 </file>
@@ -2721,11 +2721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -3521,13 +3521,13 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>10</v>
@@ -3551,13 +3551,13 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -3581,13 +3581,13 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -3719,13 +3719,13 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>10</v>
@@ -3749,13 +3749,13 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -3819,8 +3819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,13 +3835,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,10 +3882,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,10 +3893,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3934,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -4670,7 +4673,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4700,7 +4703,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -4731,10 +4734,10 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
@@ -4909,7 +4912,7 @@
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -4935,7 +4938,7 @@
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4961,7 +4964,7 @@
         <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -4987,7 +4990,7 @@
         <v>2000</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5013,7 +5016,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5039,7 +5042,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5065,7 +5068,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -5091,7 +5094,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -5117,7 +5120,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -5143,7 +5146,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5169,7 +5172,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5192,7 +5195,7 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5218,7 +5221,7 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5244,7 +5247,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5270,7 +5273,7 @@
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5296,7 +5299,7 @@
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5322,7 +5325,7 @@
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5348,7 +5351,7 @@
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5374,7 +5377,7 @@
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5400,7 +5403,7 @@
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -5586,7 +5589,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5616,7 +5619,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -5647,10 +5650,10 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
@@ -5825,7 +5828,7 @@
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -5851,7 +5854,7 @@
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5877,7 +5880,7 @@
         <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -5963,7 +5966,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5989,7 +5992,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6015,7 +6018,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6041,7 +6044,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -6067,7 +6070,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6093,7 +6096,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6119,7 +6122,7 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6145,7 +6148,7 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -6171,7 +6174,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -6197,7 +6200,7 @@
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -6223,7 +6226,7 @@
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6249,7 +6252,7 @@
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -6275,7 +6278,7 @@
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -6301,7 +6304,7 @@
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -6327,7 +6330,7 @@
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -6547,7 +6550,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{4226227F-F842-4405-836A-DDD8E5CA33A1}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10kopeks '!G4))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!G4))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -6634,10 +6637,10 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
@@ -6662,13 +6665,13 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -6692,13 +6695,13 @@
         <v>1992</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
@@ -6842,7 +6845,7 @@
         <v>1997</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -6868,7 +6871,7 @@
         <v>1998</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -6894,7 +6897,7 @@
         <v>1999</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7070,7 +7073,7 @@
         <v>2005</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7096,7 +7099,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7122,7 +7125,7 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7148,7 +7151,7 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7174,7 +7177,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7200,10 +7203,10 @@
         <v>2009</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
@@ -7228,10 +7231,10 @@
         <v>2010</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -7256,10 +7259,10 @@
         <v>2011</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -7284,10 +7287,10 @@
         <v>2012</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
@@ -7312,10 +7315,10 @@
         <v>2013</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
@@ -7340,10 +7343,10 @@
         <v>2014</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
@@ -7368,10 +7371,10 @@
         <v>2015</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
@@ -7396,10 +7399,10 @@
         <v>2016</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
@@ -7424,10 +7427,10 @@
         <v>2017</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
@@ -7452,10 +7455,10 @@
         <v>2018</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
@@ -7480,10 +7483,10 @@
         <v>2019</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
@@ -7571,7 +7574,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -7602,7 +7605,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7628,7 +7631,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -7654,7 +7657,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7831,7 +7834,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -7857,7 +7860,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7883,7 +7886,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7909,7 +7912,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7935,7 +7938,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7961,10 +7964,10 @@
         <v>2009</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
@@ -7989,10 +7992,10 @@
         <v>2010</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
@@ -8017,10 +8020,10 @@
         <v>2011</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
@@ -8045,10 +8048,10 @@
         <v>2012</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
@@ -8073,10 +8076,10 @@
         <v>2013</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
@@ -8101,10 +8104,10 @@
         <v>2014</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
@@ -8129,10 +8132,10 @@
         <v>2015</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
@@ -8157,10 +8160,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
@@ -8185,10 +8188,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -8213,10 +8216,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -8241,10 +8244,10 @@
         <v>2019</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
@@ -8350,7 +8353,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -8381,10 +8384,10 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
@@ -8409,13 +8412,13 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -8439,13 +8442,13 @@
         <v>1992</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
@@ -8589,7 +8592,7 @@
         <v>1997</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -8615,7 +8618,7 @@
         <v>1998</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -8911,7 +8914,7 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -8937,7 +8940,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -8963,10 +8966,10 @@
         <v>2009</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
@@ -8991,10 +8994,10 @@
         <v>2010</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -9019,10 +9022,10 @@
         <v>2011</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -9047,10 +9050,10 @@
         <v>2012</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
@@ -9075,10 +9078,10 @@
         <v>2013</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
@@ -9103,10 +9106,10 @@
         <v>2014</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
@@ -9131,10 +9134,10 @@
         <v>2015</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
@@ -9159,10 +9162,10 @@
         <v>2016</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
@@ -9187,10 +9190,10 @@
         <v>2017</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
@@ -9215,10 +9218,10 @@
         <v>2018</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
@@ -9243,10 +9246,10 @@
         <v>2019</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
@@ -9360,7 +9363,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10kopeks '!G5))))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!G5))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -9416,7 +9419,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -9447,10 +9450,10 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
@@ -9475,13 +9478,13 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -9505,13 +9508,13 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
@@ -9985,10 +9988,10 @@
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
@@ -10013,10 +10016,10 @@
         <v>2010</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
@@ -10041,10 +10044,10 @@
         <v>2011</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
@@ -10069,10 +10072,10 @@
         <v>2012</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -10097,10 +10100,10 @@
         <v>2013</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -10155,10 +10158,10 @@
         <v>2015</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
@@ -10183,10 +10186,10 @@
         <v>2016</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
@@ -10211,10 +10214,10 @@
         <v>2017</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
@@ -10239,10 +10242,10 @@
         <v>2018</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
@@ -10267,10 +10270,10 @@
         <v>2019</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
@@ -10357,7 +10360,7 @@
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -10388,13 +10391,13 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>10</v>
@@ -10418,13 +10421,13 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
